--- a/Reports/Lobewise Comparisons/ResultsFinal/cons.xlsx
+++ b/Reports/Lobewise Comparisons/ResultsFinal/cons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c2d16a148962151/Desktop/BIOSTAT/Thesis/Thesis/Reports/Lobewise Comparisons/ResultsFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="11_F25DC773A252ABDACC1048CA799F592E5BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65E10E4A-4B37-43C4-8EAC-13B4BE371404}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="11_F25DC773A252ABDACC1048CA799F592E5BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9676321-7CB0-4875-9927-6E69DCC0007D}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PO_main" sheetId="1" r:id="rId1"/>
@@ -138,9 +138,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,6 +155,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,7 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -824,11 +827,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31352B40-21B4-431D-AC21-5F70B9A713D1}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10.20703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.68359375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
@@ -854,7 +863,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
@@ -877,7 +886,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
@@ -900,7 +909,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4">
@@ -926,7 +935,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
@@ -949,7 +958,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
@@ -972,7 +981,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7">
@@ -998,7 +1007,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
@@ -1021,7 +1030,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
@@ -1044,7 +1053,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
@@ -1067,7 +1076,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
@@ -1090,7 +1099,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12">
@@ -1116,7 +1125,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
@@ -1139,7 +1148,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14">
@@ -1165,7 +1174,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -1188,7 +1197,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
